--- a/Bayesian eruption estimate/example_data_bayesian_results_summary.xlsx
+++ b/Bayesian eruption estimate/example_data_bayesian_results_summary.xlsx
@@ -507,40 +507,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="C2" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="D2" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="E2" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="G2" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="H2" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="I2" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="J2" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="K2" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="L2" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="M2" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="3">
@@ -550,40 +550,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="C3" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="D3" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="E3" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="F3" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="G3" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="I3" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="J3" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="K3" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="L3" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="M3" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
   </sheetData>
